--- a/Issue Folder.xlsx
+++ b/Issue Folder.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Home Page" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -15,9 +15,108 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>250 x 200</t>
+  </si>
+  <si>
+    <t>200 x 200</t>
+  </si>
+  <si>
+    <t>300 x 400</t>
+  </si>
+  <si>
+    <t>350 x 600</t>
+  </si>
+  <si>
+    <t>400 x 300</t>
+  </si>
+  <si>
+    <t>500 x 200</t>
+  </si>
+  <si>
+    <t>600 x 1100</t>
+  </si>
+  <si>
+    <t>Fix  right Margin</t>
+  </si>
+  <si>
+    <t>Side Ad should fit the margin</t>
+  </si>
+  <si>
+    <t>Middle ad should be centered</t>
+  </si>
+  <si>
+    <t>Desktop View</t>
+  </si>
+  <si>
+    <t>*** Optional</t>
+  </si>
+  <si>
+    <t>Make search bar wider</t>
+  </si>
+  <si>
+    <t>Nav buttons - height little smaller</t>
+  </si>
+  <si>
+    <t>NO Footer ????</t>
+  </si>
+  <si>
+    <t>Mobile View</t>
+  </si>
+  <si>
+    <r>
+      <t>Ideal nav bar view</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Menu - icon - search)</t>
+    </r>
+  </si>
+  <si>
+    <t>Menu hidden  - Move to left</t>
+  </si>
+  <si>
+    <t>TOP View</t>
+  </si>
+  <si>
+    <t>BODY VIEW</t>
+  </si>
+  <si>
+    <t>Logo cut off - Box cuts off - View deal looks funny, need more height</t>
+  </si>
+  <si>
+    <t>I think It should look something like this - bigger left + right margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen </t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Mobile - Optional</t>
+  </si>
+  <si>
+    <t>Side ads - if possible make like WP web</t>
+  </si>
+  <si>
+    <t>OPTIONAL - This is nice search feature on WP website - shows icon , description, price</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +124,133 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,19 +258,1721 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF33"/>
+    </mruColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7705974</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="190500"/>
+          <a:ext cx="7705973" cy="7920000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1154906</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3726656</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11346656" y="785812"/>
+          <a:ext cx="2571750" cy="4431506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3369469</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3821906</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13561219" y="916781"/>
+          <a:ext cx="452437" cy="535782"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>750094</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1297781</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10941844" y="1178719"/>
+          <a:ext cx="547687" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3662463</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>118781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11334750" y="5595937"/>
+          <a:ext cx="2519463" cy="4536000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3033713</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3581400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13225463" y="6807994"/>
+          <a:ext cx="547687" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143001</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3540628</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>105188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11334751" y="10656094"/>
+          <a:ext cx="2397627" cy="4320000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3333750</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="10846594"/>
+          <a:ext cx="2190750" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1178719</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3683794</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11370469" y="16109156"/>
+          <a:ext cx="2505075" cy="4481512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1595437</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11239500" y="16156782"/>
+          <a:ext cx="547687" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>881063</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11072813" y="20276344"/>
+          <a:ext cx="547687" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>916781</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1464468</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11108531" y="18145125"/>
+          <a:ext cx="547687" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>928688</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4071938</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11120438" y="21085969"/>
+          <a:ext cx="3143250" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1369219</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3667125</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11560969" y="21562219"/>
+          <a:ext cx="2297906" cy="4143376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="2800">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1452568</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3498302</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11644318" y="21776531"/>
+          <a:ext cx="2045734" cy="3060000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1509713</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3525713</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>84336</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11701463" y="25048367"/>
+          <a:ext cx="2016000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>View Deal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>916780</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10560843" y="22181344"/>
+          <a:ext cx="547687" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3714750</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10858500" y="27515344"/>
+          <a:ext cx="3048000" cy="5136356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1988345</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2536032</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12180095" y="30432375"/>
+          <a:ext cx="547687" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1833562</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11477625" y="28277343"/>
+          <a:ext cx="547687" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35720</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29620</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>45657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7822408" y="8977313"/>
+          <a:ext cx="2398962" cy="4320000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7346155</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297655</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7346155" y="8167686"/>
+          <a:ext cx="3143250" cy="5286377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6912648</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95251" y="9286876"/>
+          <a:ext cx="6817397" cy="1762124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3216402</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>399724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="FB Icon.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1387929"/>
+          <a:ext cx="3121152" cy="3121152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>778329</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3118329</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>873150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="FB Icon.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11255829" y="737507"/>
+          <a:ext cx="2340000" cy="2340000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>639536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2666571</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>122036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="FB Icon.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4612821" y="938893"/>
+          <a:ext cx="2340000" cy="2340000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1732285</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>807000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="FB Icon.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:duotone>
+            <a:schemeClr val="bg2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2449285" y="870857"/>
+          <a:ext cx="1188000" cy="1188000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>503465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1529036</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>630965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="FB Icon.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449036" y="802822"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>258537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1630500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>746037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="FB Icon.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14478000" y="557894"/>
+          <a:ext cx="1440000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1635578</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>329295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3075578</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>816795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="FB Icon.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15923078" y="628652"/>
+          <a:ext cx="1440000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5361214</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="FB Icon.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19675928" y="2245179"/>
+          <a:ext cx="4735286" cy="4735286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,13 +2260,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="116.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="36" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="21">
+      <c r="A42" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -366,12 +2391,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" customWidth="1"/>
+    <col min="6" max="6" width="71.42578125" customWidth="1"/>
+    <col min="7" max="7" width="85.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="1">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1">
+        <v>250</v>
+      </c>
+      <c r="C1" s="1">
+        <v>300</v>
+      </c>
+      <c r="D1" s="1">
+        <v>350</v>
+      </c>
+      <c r="E1" s="1">
+        <v>400</v>
+      </c>
+      <c r="F1" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="75" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="75" customHeight="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" customHeight="1">
+      <c r="C5" s="7"/>
+      <c r="D5" s="15"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="75" customHeight="1">
+      <c r="D6" s="15"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="75" customHeight="1">
+      <c r="D7" s="15"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="75" customHeight="1">
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="75" customHeight="1">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="75" customHeight="1">
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="75" customHeight="1">
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" ht="75" customHeight="1">
+      <c r="G12" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Issue Folder.xlsx
+++ b/Issue Folder.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>250 x 200</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>OPTIONAL - This is nice search feature on WP website - shows icon , description, price</t>
+  </si>
+  <si>
+    <t>This is under seller menu - SUBSCRIOTION!! I was thinking UPGRADE SUBSCRIPTION but I think subscription is better</t>
+  </si>
+  <si>
+    <t>DASHBOARD -    Wrong OLD page - Old navbar</t>
+  </si>
+  <si>
+    <t>Correct Page</t>
   </si>
 </sst>
 </file>
@@ -271,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,6 +355,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,6 +1586,152 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7778241</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76200" y="1638300"/>
+          <a:ext cx="7702041" cy="5400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7888695</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="838199"/>
+          <a:ext cx="7888695" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7802753</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>66000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7696200"/>
+          <a:ext cx="7802753" cy="5400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2260,10 +2420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2379,13 +2542,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="119.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="32"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Issue Folder.xlsx
+++ b/Issue Folder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>250 x 200</t>
   </si>
@@ -120,12 +120,15 @@
   <si>
     <t>Correct Page</t>
   </si>
+  <si>
+    <t>Can we have BACK TO TOP feature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +195,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -280,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="22"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +702,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>3540628</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>105188</xdr:rowOff>
+      <xdr:rowOff>69469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1122,7 +1136,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>3498302</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>47718</xdr:rowOff>
+      <xdr:rowOff>47719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1438,7 +1452,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>29620</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>45657</xdr:rowOff>
+      <xdr:rowOff>9938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1580,6 +1594,125 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4357688</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6291263</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect l="70917"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4357688" y="11691938"/>
+          <a:ext cx="1933575" cy="769144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1547813</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>21429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6298407</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1547813" y="11653835"/>
+          <a:ext cx="4750594" cy="1264446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2425,8 +2558,8 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2504,9 +2637,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="1:3">
       <c r="C51" s="25" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75">
+      <c r="A59" s="33" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="3:3">
@@ -2547,7 +2685,7 @@
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
